--- a/biology/Botanique/Kyōto_Gyoen/Kyōto_Gyoen.xlsx
+++ b/biology/Botanique/Kyōto_Gyoen/Kyōto_Gyoen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ky%C5%8Dto_Gyoen</t>
+          <t>Kyōto_Gyoen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Kyōto-gyoen (京都御苑?) est un parc situé dans l'arrondissement de Kamigyō, au milieu de la ville de Kyoto au Japon. Il entoure le palais impérial de Kyoto[1].
+Le Kyōto-gyoen (京都御苑?) est un parc situé dans l'arrondissement de Kamigyō, au milieu de la ville de Kyoto au Japon. Il entoure le palais impérial de Kyoto.
 Il est desservi par les stations Marutamachi et Imadegawa du métro de Kyoto .
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ky%C5%8Dto_Gyoen</t>
+          <t>Kyōto_Gyoen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Kyoto Gyoen abritant le Palais impérial de Kyoto fut le lieu de résidence des empereurs japonais de l’ère Heian (794-1192) à l’ère Meiji (1868-1912), soit pendant plus d’un millénaire. Dans les dernières années de la période Edo (1603-1868), le palais impérial de Kyoto était entouré par les demeures des nobles qui fréquentaient la cour impériale. Au moment de la période Meiji lorsque la capitale du Japon fut déplacée de Kyoto à Tokyo l’empereur et les nobles quittèrent le palais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Kyoto Gyoen abritant le Palais impérial de Kyoto fut le lieu de résidence des empereurs japonais de l’ère Heian (794-1192) à l’ère Meiji (1868-1912), soit pendant plus d’un millénaire. Dans les dernières années de la période Edo (1603-1868), le palais impérial de Kyoto était entouré par les demeures des nobles qui fréquentaient la cour impériale. Au moment de la période Meiji lorsque la capitale du Japon fut déplacée de Kyoto à Tokyo l’empereur et les nobles quittèrent le palais.
 Après le départ de la cour impériale les lieux furent transformés. L’empereur Meiji ordonna la réalisation de travaux pour conserver l’ancien palais impérial mais les demeures des nobles furent démolies et un parc fut érigé à leurs place : le Kyoto Gyoen.
 Bien que le pouvoir ai été transféré à Tokyo dans le palais du Kokyo, les cérémonies d’intronisation des empereurs Taishō et Shōwa furent organisées à Kyoto. Après la Seconde Guerre mondiale des aires de repos, des aires de jeu pour enfants et des terrains de sport furent aménagés dans le complexe afin de rendre le jardin plus accessible au public.
 Aujourd’hui, le Kyoto Gyoen s’étend sur près de 100 hectares. Il se compose de neuf portes et de cinq entrées et abrite de nombreux bâtiments et palais : le palais impérial, le palais Ōmiya, le palais Sentō et le Kyoto State Guest House.
